--- a/output/5Y_P50_KFSDIV.xlsx
+++ b/output/5Y_P50_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -6946,7 +6949,7 @@
         <v>498185.2479</v>
       </c>
       <c r="K50" s="1">
-        <v>540379.8103</v>
+        <v>540380.9968</v>
       </c>
       <c r="L50" s="1">
         <v>11.7902</v>
@@ -6999,7 +7002,7 @@
         <v>497844.964</v>
       </c>
       <c r="K51" s="1">
-        <v>547925.79</v>
+        <v>547926.9765</v>
       </c>
       <c r="L51" s="1">
         <v>11.7715</v>
@@ -7052,7 +7055,7 @@
         <v>524815.453</v>
       </c>
       <c r="K52" s="1">
-        <v>568317.5363</v>
+        <v>568318.7228</v>
       </c>
       <c r="L52" s="1">
         <v>11.7136</v>
@@ -7105,10 +7108,10 @@
         <v>540428.718</v>
       </c>
       <c r="K53" s="1">
-        <v>571752.2535</v>
+        <v>571753.4399</v>
       </c>
       <c r="L53" s="1">
-        <v>11.7053</v>
+        <v>11.7054</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7158,10 +7161,10 @@
         <v>556760.7267999999</v>
       </c>
       <c r="K54" s="1">
-        <v>576142.8246000001</v>
+        <v>576144.0111</v>
       </c>
       <c r="L54" s="1">
-        <v>11.696</v>
+        <v>11.6961</v>
       </c>
       <c r="M54" s="1">
         <v>0.2</v>
@@ -7211,7 +7214,7 @@
         <v>597615.9583000001</v>
       </c>
       <c r="K55" s="1">
-        <v>579807.9074</v>
+        <v>579809.0939</v>
       </c>
       <c r="L55" s="1">
         <v>11.6894</v>
@@ -7264,10 +7267,10 @@
         <v>625933.2971</v>
       </c>
       <c r="K56" s="1">
-        <v>567756.551</v>
+        <v>567805.9494</v>
       </c>
       <c r="L56" s="1">
-        <v>11.7008</v>
+        <v>11.7018</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7317,10 +7320,10 @@
         <v>606560.258</v>
       </c>
       <c r="K57" s="1">
-        <v>559405.8165</v>
+        <v>559488.6106</v>
       </c>
       <c r="L57" s="1">
-        <v>11.7031</v>
+        <v>11.7048</v>
       </c>
       <c r="M57" s="1">
         <v>0.5</v>
@@ -7370,10 +7373,10 @@
         <v>655619.5072</v>
       </c>
       <c r="K58" s="1">
-        <v>598936.8278</v>
+        <v>599019.6219</v>
       </c>
       <c r="L58" s="1">
-        <v>11.6491</v>
+        <v>11.6507</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7423,10 +7426,10 @@
         <v>685094.3296000001</v>
       </c>
       <c r="K59" s="1">
-        <v>591198.6263</v>
+        <v>591312.3559</v>
       </c>
       <c r="L59" s="1">
-        <v>11.6541</v>
+        <v>11.6563</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7476,10 +7479,10 @@
         <v>678692.7496</v>
       </c>
       <c r="K60" s="1">
-        <v>581685.807</v>
+        <v>581837.5335</v>
       </c>
       <c r="L60" s="1">
-        <v>11.6539</v>
+        <v>11.6569</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -7529,10 +7532,10 @@
         <v>690331.5433</v>
       </c>
       <c r="K61" s="1">
-        <v>608193.3067</v>
+        <v>608345.0331</v>
       </c>
       <c r="L61" s="1">
-        <v>11.6397</v>
+        <v>11.6426</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7582,10 +7585,10 @@
         <v>706072.6885</v>
       </c>
       <c r="K62" s="1">
-        <v>634522.7745000001</v>
+        <v>634674.5009</v>
       </c>
       <c r="L62" s="1">
-        <v>11.6128</v>
+        <v>11.6156</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -10788,10 +10791,10 @@
         <v>684291.3395999999</v>
       </c>
       <c r="K60" s="1">
-        <v>669246.7959</v>
+        <v>669283.6138000001</v>
       </c>
       <c r="L60" s="1">
-        <v>11.591</v>
+        <v>11.5917</v>
       </c>
       <c r="M60" s="1">
         <v>0.4</v>
@@ -10841,10 +10844,10 @@
         <v>696130.7326</v>
       </c>
       <c r="K61" s="1">
-        <v>701703.901</v>
+        <v>701740.7189</v>
       </c>
       <c r="L61" s="1">
-        <v>11.579</v>
+        <v>11.5796</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10894,10 +10897,10 @@
         <v>712799.7275</v>
       </c>
       <c r="K62" s="1">
-        <v>734071.4497999999</v>
+        <v>734108.2677</v>
       </c>
       <c r="L62" s="1">
-        <v>11.5534</v>
+        <v>11.554</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,10 +17600,10 @@
         <v>11.5598</v>
       </c>
       <c r="D3" s="1">
-        <v>11.6128</v>
+        <v>11.6156</v>
       </c>
       <c r="E3" s="1">
-        <v>11.5534</v>
+        <v>11.554</v>
       </c>
       <c r="F3" s="1">
         <v>11.5678</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>143864.6888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1125</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.971</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9585</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9585</v>
       </c>
     </row>
   </sheetData>
